--- a/com.DemoWebShop/src/test/resources/TestData/DemoWebShopTestData.xlsx
+++ b/com.DemoWebShop/src/test/resources/TestData/DemoWebShopTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\OneDrive\Desktop\NoidaAfterNoonBatch\com.DemoWebShop\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\localrepo\com.DemoWebShop\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12251C13-34F6-4EAA-86B4-0822E3E945DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38505C2B-DF77-495F-A227-AA377A663A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6924A3E7-DCEF-4B52-9707-0E1AD0886401}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6924A3E7-DCEF-4B52-9707-0E1AD0886401}"/>
   </bookViews>
   <sheets>
     <sheet name="RegData" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,15 +182,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442F4EF7-847B-4344-940C-8EF751863E82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +589,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -586,6 +597,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AAC19735-31B3-4696-B606-8605453DCBEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -594,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC1D2FA-02F2-4A2C-B7B6-DC62E19E8005}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0">
+    <sheetView zoomScale="400" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
